--- a/List komponen AIR.xlsx
+++ b/List komponen AIR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -117,6 +117,66 @@
   </si>
   <si>
     <t>https://www.tokopedia.com/delta-electronic/100-pcs-resistor-carbon-10k-ohm-05-w?extParam=whid%3D364884</t>
+  </si>
+  <si>
+    <t>schottky 1N5819</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/lisuinstrument/1n5819-sma-ss14-smd-1-0a-schottky-barrier-rectifier?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+  </si>
+  <si>
+    <t>terminal block hijau 2p</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/s3-satriasecure/l-siku-pluggable-2-p-pin-terminal-blok-2p-2pin-screw-plugable-block?extParam=whid%3D311029</t>
+  </si>
+  <si>
+    <t>terminal block hijau 3p</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/s3-satriasecure/l-siku-pluggable-3-p-pin-terminal-blok-3p-3pin-screw-plugable-block?extParam=whid%3D311029</t>
+  </si>
+  <si>
+    <t>resistor 330 ohm 0805</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/isee/resistor-smd-0805-330ohm-330-ohm-toleransi-1-tolerance-1?extParam=whid%3D318325</t>
+  </si>
+  <si>
+    <t>led 3mm merah</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/isee/led-3mm-red-round-diffused-merah-3-mm-usually-use-for-indicator?extParam=whid%3D318325</t>
+  </si>
+  <si>
+    <t>Noted:</t>
+  </si>
+  <si>
+    <t>belum termasuk PCB</t>
+  </si>
+  <si>
+    <t>terminal block hijau 4p</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/s3-satriasecure/l-siku-pluggable-4-p-pin-terminal-blok-4p-4pin-screw-plugable-block</t>
+  </si>
+  <si>
+    <t>terminal block hijau 5p</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/s3-satriasecure/l-siku-pluggable-5-p-pin-terminal-blok-5p-5pin-screw-plugable-block</t>
+  </si>
+  <si>
+    <t>GPS neo6</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/mri/gps-ublox-neo-6m-gy-neo6mv2-with-eeprom-antenna-module?extParam=ivf%3Dfalse%26src%3Dsearch</t>
+  </si>
+  <si>
+    <t>lcd 20x4 i2c</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/akhishop/lcd-20x4-green-backlight-with-i2c-module?extParam=ivf%3Dfalse%26src%3Dsearch</t>
   </si>
 </sst>
 </file>
@@ -143,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,26 +263,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -514,16 +581,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -552,392 +619,657 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <v>54000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>10000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f>(C3*D3)+E3</f>
         <v>64000</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <v>10000</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F8" si="0">(C4*D4)+E4</f>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F13" si="0">(C4*D4)+E4</f>
         <v>10000</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
         <v>200000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>10000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>73000</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>73000</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <v>80000</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>10000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>20</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>300</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>10000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>175</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <f>(C10*D10)+E10</f>
+        <v>1750</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>200</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4">
-        <f>SUM(F3:F8)</f>
-        <v>463000</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3">
+        <f>SUM(F3:F13)</f>
+        <v>505750</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
         <v>15000</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E17" s="6">
         <v>10000</v>
       </c>
-      <c r="F12" s="8">
-        <f>(C12*D12)+E12</f>
+      <c r="F17" s="6">
+        <f>(C17*D17)+E17</f>
         <v>25000</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
         <v>80000</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <f t="shared" ref="F13:F18" si="1">(C13*D13)+E13</f>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F29" si="1">(C18*D18)+E18</f>
         <v>80000</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>70000</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
         <v>200000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E20" s="6">
         <v>10000</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F20" s="6">
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
         <v>73000</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
         <f t="shared" si="1"/>
         <v>73000</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>5</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
         <v>10000</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6">
+        <v>100</v>
+      </c>
+      <c r="E23" s="6">
         <v>10000</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8">
-        <v>100</v>
-      </c>
-      <c r="E17" s="8">
-        <v>10000</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="F23" s="6">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>7</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
         <v>7000</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4000</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
+        <v>32000</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6600</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
+        <v>6600</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>8400</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
+        <f t="shared" si="1"/>
+        <v>8400</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>12</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>60000</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4">
-        <f>SUM(F12:F18)</f>
-        <v>417000</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="3">
+        <f>SUM(F17:F24)</f>
+        <v>507000</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
@@ -945,14 +1277,19 @@
     <hyperlink ref="H7" r:id="rId3"/>
     <hyperlink ref="H4" r:id="rId4"/>
     <hyperlink ref="H8" r:id="rId5"/>
-    <hyperlink ref="H12" r:id="rId6"/>
-    <hyperlink ref="H14" r:id="rId7"/>
-    <hyperlink ref="H13" r:id="rId8"/>
-    <hyperlink ref="H16" r:id="rId9"/>
-    <hyperlink ref="H17" r:id="rId10"/>
-    <hyperlink ref="H18" r:id="rId11"/>
+    <hyperlink ref="H17" r:id="rId6"/>
+    <hyperlink ref="H20" r:id="rId7"/>
+    <hyperlink ref="H18" r:id="rId8"/>
+    <hyperlink ref="H22" r:id="rId9"/>
+    <hyperlink ref="H23" r:id="rId10"/>
+    <hyperlink ref="H24" r:id="rId11"/>
+    <hyperlink ref="H11" r:id="rId12"/>
+    <hyperlink ref="H12" r:id="rId13"/>
+    <hyperlink ref="H13" r:id="rId14"/>
+    <hyperlink ref="H25" r:id="rId15"/>
+    <hyperlink ref="H26" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>